--- a/embeded-hw3/tables/out_o1.xlsx
+++ b/embeded-hw3/tables/out_o1.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Github\Embeded-HW\embeded-hw3\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA27B7-BDB5-4D02-ABB1-2F3EF5F23368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
@@ -36,15 +50,19 @@
   <si>
     <t>horner optimized</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -81,33 +99,105 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G101" totalsRowShown="0">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G102" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="index" dataDxfId="0"/>
-    <tableColumn id="2" name="mixed" dataDxfId="1"/>
-    <tableColumn id="3" name="mixed optimized" dataDxfId="1"/>
-    <tableColumn id="4" name="poly" dataDxfId="1"/>
-    <tableColumn id="5" name="poly optimized" dataDxfId="1"/>
-    <tableColumn id="6" name="horner" dataDxfId="1"/>
-    <tableColumn id="7" name="horner optimized" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mixed" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mixed optimized" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="poly" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="poly optimized" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="horner" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="horner optimized" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -156,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,2340 +523,2382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.000539</v>
+        <v>5.3899999999999998E-4</v>
       </c>
       <c r="C2" s="2">
         <v>0.429338</v>
       </c>
       <c r="D2" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="E2" s="2">
-        <v>0.973619</v>
+        <v>0.97361900000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G2" s="2">
-        <v>0.000388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3.88E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.000387</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="C3" s="2">
-        <v>0.428146</v>
+        <v>0.42814600000000003</v>
       </c>
       <c r="D3" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E3" s="2">
-        <v>0.9833</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="F3" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G3" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.000795</v>
+        <v>7.9500000000000003E-4</v>
       </c>
       <c r="C4" s="2">
         <v>0.425645</v>
       </c>
       <c r="D4" s="2">
-        <v>0.000406</v>
+        <v>4.06E-4</v>
       </c>
       <c r="E4" s="2">
-        <v>0.976841</v>
+        <v>0.97684099999999996</v>
       </c>
       <c r="F4" s="2">
-        <v>0.000385</v>
+        <v>3.8499999999999998E-4</v>
       </c>
       <c r="G4" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.000652</v>
+        <v>6.5200000000000002E-4</v>
       </c>
       <c r="C5" s="2">
-        <v>0.424714</v>
+        <v>0.42471399999999998</v>
       </c>
       <c r="D5" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E5" s="2">
-        <v>0.973484</v>
+        <v>0.97348400000000002</v>
       </c>
       <c r="F5" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G5" s="2">
-        <v>0.000389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3.8900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="C6" s="2">
-        <v>0.423691</v>
+        <v>0.42369099999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E6" s="2">
-        <v>0.97661</v>
+        <v>0.97660999999999998</v>
       </c>
       <c r="F6" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G6" s="2">
-        <v>0.000381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3.8099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.000425</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="C7" s="2">
-        <v>0.427115</v>
+        <v>0.42711500000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E7" s="2">
-        <v>0.97593</v>
+        <v>0.97592999999999996</v>
       </c>
       <c r="F7" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G7" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.0004929999999999999</v>
+        <v>4.9299999999999995E-4</v>
       </c>
       <c r="C8" s="2">
-        <v>0.426316</v>
+        <v>0.42631599999999997</v>
       </c>
       <c r="D8" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E8" s="2">
-        <v>0.974872</v>
+        <v>0.97487199999999996</v>
       </c>
       <c r="F8" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="G8" s="2">
-        <v>0.000386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.86E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.000776</v>
+        <v>7.76E-4</v>
       </c>
       <c r="C9" s="2">
         <v>0.432477</v>
       </c>
       <c r="D9" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="E9" s="2">
-        <v>0.973722</v>
+        <v>0.97372199999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G9" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.000784</v>
+        <v>7.8399999999999997E-4</v>
       </c>
       <c r="C10" s="2">
-        <v>0.4276</v>
+        <v>0.42759999999999998</v>
       </c>
       <c r="D10" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E10" s="2">
-        <v>0.972512</v>
+        <v>0.97251200000000004</v>
       </c>
       <c r="F10" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G10" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.000418</v>
+        <v>4.1800000000000002E-4</v>
       </c>
       <c r="C11" s="2">
-        <v>0.423529</v>
+        <v>0.42352899999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E11" s="2">
-        <v>0.975295</v>
+        <v>0.97529500000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G11" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.000475</v>
+        <v>4.75E-4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.426617</v>
+        <v>0.42661700000000002</v>
       </c>
       <c r="D12" s="2">
-        <v>0.000384</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="E12" s="2">
-        <v>0.972177</v>
+        <v>0.97217699999999996</v>
       </c>
       <c r="F12" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="G12" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.44178</v>
+        <v>0.44178000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E13" s="2">
-        <v>0.978811</v>
+        <v>0.97881099999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G13" s="2">
-        <v>0.000383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>3.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.000436</v>
+        <v>4.3600000000000003E-4</v>
       </c>
       <c r="C14" s="2">
         <v>0.430757</v>
       </c>
       <c r="D14" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="E14" s="2">
-        <v>0.9792110000000001</v>
+        <v>0.97921100000000005</v>
       </c>
       <c r="F14" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G14" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0.000842</v>
+        <v>8.4199999999999998E-4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.424901</v>
+        <v>0.42490099999999997</v>
       </c>
       <c r="D15" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E15" s="2">
-        <v>0.972254</v>
+        <v>0.97225399999999995</v>
       </c>
       <c r="F15" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="G15" s="2">
-        <v>0.000378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>3.7800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.000779</v>
+        <v>7.7899999999999996E-4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.432292</v>
+        <v>0.43229200000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E16" s="2">
-        <v>0.977864</v>
+        <v>0.97786399999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G16" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.000766</v>
+        <v>7.6599999999999997E-4</v>
       </c>
       <c r="C17" s="2">
         <v>0.426402</v>
       </c>
       <c r="D17" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E17" s="2">
-        <v>0.978735</v>
+        <v>0.97873500000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G17" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.000468</v>
+        <v>4.6799999999999999E-4</v>
       </c>
       <c r="C18" s="2">
-        <v>0.427978</v>
+        <v>0.42797800000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E18" s="2">
         <v>0.977719</v>
       </c>
       <c r="F18" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G18" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.000504</v>
+        <v>5.04E-4</v>
       </c>
       <c r="C19" s="2">
-        <v>0.433822</v>
+        <v>0.43382199999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E19" s="2">
-        <v>0.973205</v>
+        <v>0.97320499999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G19" s="2">
-        <v>0.000392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>3.9199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.00078</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="C20" s="2">
-        <v>0.429735</v>
+        <v>0.42973499999999998</v>
       </c>
       <c r="D20" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E20" s="2">
-        <v>0.974538</v>
+        <v>0.97453800000000002</v>
       </c>
       <c r="F20" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G20" s="2">
-        <v>0.000378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>3.7800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0.000546</v>
+        <v>5.4600000000000004E-4</v>
       </c>
       <c r="C21" s="2">
         <v>0.424452</v>
       </c>
       <c r="D21" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E21" s="2">
         <v>0.985155</v>
       </c>
       <c r="F21" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G21" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>0.0008140000000000001</v>
+        <v>8.1400000000000005E-4</v>
       </c>
       <c r="C22" s="2">
-        <v>0.43205</v>
+        <v>0.43204999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E22" s="2">
-        <v>0.977469</v>
+        <v>0.97746900000000003</v>
       </c>
       <c r="F22" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="G22" s="2">
-        <v>0.00039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>0.000466</v>
+        <v>4.66E-4</v>
       </c>
       <c r="C23" s="2">
         <v>0.427624</v>
       </c>
       <c r="D23" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E23" s="2">
-        <v>0.973375</v>
+        <v>0.97337499999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G23" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>0.00078</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="C24" s="2">
         <v>0.426427</v>
       </c>
       <c r="D24" s="2">
-        <v>0.000392</v>
+        <v>3.9199999999999999E-4</v>
       </c>
       <c r="E24" s="2">
         <v>0.971194</v>
       </c>
       <c r="F24" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="G24" s="2">
-        <v>0.000399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3.9899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>0.000458</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="C25" s="2">
-        <v>0.427768</v>
+        <v>0.42776799999999998</v>
       </c>
       <c r="D25" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E25" s="2">
-        <v>0.97988</v>
+        <v>0.97987999999999997</v>
       </c>
       <c r="F25" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G25" s="2">
-        <v>0.00039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0.000763</v>
+        <v>7.6300000000000001E-4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.433538</v>
+        <v>0.43353799999999998</v>
       </c>
       <c r="D26" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="E26" s="2">
-        <v>0.973002</v>
+        <v>0.97300200000000003</v>
       </c>
       <c r="F26" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="G26" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>0.000421</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="C27" s="2">
-        <v>0.42878</v>
+        <v>0.42877999999999999</v>
       </c>
       <c r="D27" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E27" s="2">
-        <v>0.991841</v>
+        <v>0.99184099999999997</v>
       </c>
       <c r="F27" s="2">
-        <v>0.000386</v>
+        <v>3.86E-4</v>
       </c>
       <c r="G27" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>0.000417</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C28" s="2">
-        <v>0.434383</v>
+        <v>0.43438300000000002</v>
       </c>
       <c r="D28" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="E28" s="2">
-        <v>0.980724</v>
+        <v>0.98072400000000004</v>
       </c>
       <c r="F28" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G28" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>0.000464</v>
+        <v>4.64E-4</v>
       </c>
       <c r="C29" s="2">
         <v>0.435062</v>
       </c>
       <c r="D29" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E29" s="2">
-        <v>0.978795</v>
+        <v>0.97879499999999997</v>
       </c>
       <c r="F29" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G29" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>0.000494</v>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="C30" s="2">
-        <v>0.42713</v>
+        <v>0.42713000000000001</v>
       </c>
       <c r="D30" s="2">
-        <v>0.000392</v>
+        <v>3.9199999999999999E-4</v>
       </c>
       <c r="E30" s="2">
-        <v>0.978579</v>
+        <v>0.97857899999999998</v>
       </c>
       <c r="F30" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G30" s="2">
-        <v>0.000379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3.79E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>0.000423</v>
+        <v>4.2299999999999998E-4</v>
       </c>
       <c r="C31" s="2">
-        <v>0.424942</v>
+        <v>0.42494199999999999</v>
       </c>
       <c r="D31" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E31" s="2">
-        <v>0.975873</v>
+        <v>0.97587299999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G31" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>0.000862</v>
+        <v>8.6200000000000003E-4</v>
       </c>
       <c r="C32" s="2">
-        <v>0.427792</v>
+        <v>0.42779200000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E32" s="2">
-        <v>0.981807</v>
+        <v>0.98180699999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G32" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>0.00042</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="C33" s="2">
-        <v>0.426549</v>
+        <v>0.42654900000000001</v>
       </c>
       <c r="D33" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E33" s="2">
-        <v>0.972515</v>
+        <v>0.97251500000000002</v>
       </c>
       <c r="F33" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G33" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>0.000476</v>
+        <v>4.7600000000000002E-4</v>
       </c>
       <c r="C34" s="2">
-        <v>0.427934</v>
+        <v>0.42793399999999998</v>
       </c>
       <c r="D34" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E34" s="2">
-        <v>0.975568</v>
+        <v>0.97556799999999999</v>
       </c>
       <c r="F34" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="G34" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>0.000962</v>
+        <v>9.6199999999999996E-4</v>
       </c>
       <c r="C35" s="2">
-        <v>0.437876</v>
+        <v>0.43787599999999999</v>
       </c>
       <c r="D35" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E35" s="2">
-        <v>0.983936</v>
+        <v>0.98393600000000003</v>
       </c>
       <c r="F35" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G35" s="2">
-        <v>0.000383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>3.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>0.000469</v>
+        <v>4.6900000000000002E-4</v>
       </c>
       <c r="C36" s="2">
-        <v>0.425273</v>
+        <v>0.42527300000000001</v>
       </c>
       <c r="D36" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E36" s="2">
-        <v>0.976181</v>
+        <v>0.97618099999999997</v>
       </c>
       <c r="F36" s="2">
-        <v>0.000383</v>
+        <v>3.8299999999999999E-4</v>
       </c>
       <c r="G36" s="2">
-        <v>0.000379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>3.79E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>0.000487</v>
+        <v>4.8700000000000002E-4</v>
       </c>
       <c r="C37" s="2">
-        <v>0.431177</v>
+        <v>0.43117699999999998</v>
       </c>
       <c r="D37" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E37" s="2">
-        <v>0.9782419999999999</v>
+        <v>0.97824199999999994</v>
       </c>
       <c r="F37" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="G37" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>0.0004929999999999999</v>
+        <v>4.9299999999999995E-4</v>
       </c>
       <c r="C38" s="2">
-        <v>0.42485</v>
+        <v>0.42485000000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="E38" s="2">
-        <v>0.977896</v>
+        <v>0.97789599999999999</v>
       </c>
       <c r="F38" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G38" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>0.000793</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="C39" s="2">
-        <v>0.42563</v>
+        <v>0.42563000000000001</v>
       </c>
       <c r="D39" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E39" s="2">
-        <v>0.993761</v>
+        <v>0.99376100000000001</v>
       </c>
       <c r="F39" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G39" s="2">
-        <v>0.000376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>0.000442</v>
+        <v>4.4200000000000001E-4</v>
       </c>
       <c r="C40" s="2">
-        <v>0.440949</v>
+        <v>0.44094899999999998</v>
       </c>
       <c r="D40" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E40" s="2">
-        <v>0.973901</v>
+        <v>0.97390100000000002</v>
       </c>
       <c r="F40" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G40" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>0.000392</v>
+        <v>3.9199999999999999E-4</v>
       </c>
       <c r="C41" s="2">
-        <v>0.431046</v>
+        <v>0.43104599999999998</v>
       </c>
       <c r="D41" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E41" s="2">
-        <v>0.976181</v>
+        <v>0.97618099999999997</v>
       </c>
       <c r="F41" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G41" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>0.000763</v>
+        <v>7.6300000000000001E-4</v>
       </c>
       <c r="C42" s="2">
-        <v>0.425468</v>
+        <v>0.42546800000000001</v>
       </c>
       <c r="D42" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E42" s="2">
-        <v>0.972984</v>
+        <v>0.97298399999999996</v>
       </c>
       <c r="F42" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G42" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>0.00041</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="C43" s="2">
         <v>0.430983</v>
       </c>
       <c r="D43" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E43" s="2">
-        <v>0.987646</v>
+        <v>0.98764600000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G43" s="2">
-        <v>0.00039</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>0.000467</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="C44" s="2">
-        <v>0.426155</v>
+        <v>0.42615500000000001</v>
       </c>
       <c r="D44" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="E44" s="2">
-        <v>0.986316</v>
+        <v>0.98631599999999997</v>
       </c>
       <c r="F44" s="2">
-        <v>0.00038</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="G44" s="2">
-        <v>0.000382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>3.8200000000000002E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C45" s="2">
-        <v>0.427292</v>
+        <v>0.42729200000000001</v>
       </c>
       <c r="D45" s="2">
-        <v>0.000384</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="E45" s="2">
-        <v>0.971984</v>
+        <v>0.97198399999999996</v>
       </c>
       <c r="F45" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G45" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>0.000474</v>
+        <v>4.7399999999999997E-4</v>
       </c>
       <c r="C46" s="2">
         <v>0.426066</v>
       </c>
       <c r="D46" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E46" s="2">
-        <v>0.979857</v>
+        <v>0.97985699999999998</v>
       </c>
       <c r="F46" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G46" s="2">
-        <v>0.000373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>3.7300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>0.000798</v>
+        <v>7.9799999999999999E-4</v>
       </c>
       <c r="C47" s="2">
-        <v>0.43071</v>
+        <v>0.43070999999999998</v>
       </c>
       <c r="D47" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="E47" s="2">
         <v>0.975796</v>
       </c>
       <c r="F47" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G47" s="2">
-        <v>0.000373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3.7300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.00057</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C48" s="2">
         <v>0.423927</v>
       </c>
       <c r="D48" s="2">
-        <v>0.000442</v>
+        <v>4.4200000000000001E-4</v>
       </c>
       <c r="E48" s="2">
-        <v>0.980475</v>
+        <v>0.98047499999999999</v>
       </c>
       <c r="F48" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G48" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.000905</v>
+        <v>9.0499999999999999E-4</v>
       </c>
       <c r="C49" s="2">
-        <v>0.435929</v>
+        <v>0.43592900000000001</v>
       </c>
       <c r="D49" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="E49" s="2">
-        <v>0.990084</v>
+        <v>0.99008399999999996</v>
       </c>
       <c r="F49" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G49" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.000519</v>
+        <v>5.1900000000000004E-4</v>
       </c>
       <c r="C50" s="2">
-        <v>0.424814</v>
+        <v>0.42481400000000002</v>
       </c>
       <c r="D50" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E50" s="2">
-        <v>0.979834</v>
+        <v>0.97983399999999998</v>
       </c>
       <c r="F50" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G50" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.000808</v>
+        <v>8.0800000000000002E-4</v>
       </c>
       <c r="C51" s="2">
         <v>0.442301</v>
       </c>
       <c r="D51" s="2">
-        <v>0.000397</v>
+        <v>3.97E-4</v>
       </c>
       <c r="E51" s="2">
         <v>0.982734</v>
       </c>
       <c r="F51" s="2">
-        <v>0.000438</v>
+        <v>4.3800000000000002E-4</v>
       </c>
       <c r="G51" s="2">
-        <v>0.000403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>4.0299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.000431</v>
+        <v>4.3100000000000001E-4</v>
       </c>
       <c r="C52" s="2">
-        <v>0.424285</v>
+        <v>0.42428500000000002</v>
       </c>
       <c r="D52" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E52" s="2">
-        <v>0.971911</v>
+        <v>0.97191099999999997</v>
       </c>
       <c r="F52" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G52" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.000752</v>
+        <v>7.5199999999999996E-4</v>
       </c>
       <c r="C53" s="2">
         <v>0.4269</v>
       </c>
       <c r="D53" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E53" s="2">
-        <v>0.974562</v>
+        <v>0.97456200000000004</v>
       </c>
       <c r="F53" s="2">
-        <v>0.000391</v>
+        <v>3.9100000000000002E-4</v>
       </c>
       <c r="G53" s="2">
-        <v>0.00038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>3.8000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.000406</v>
+        <v>4.06E-4</v>
       </c>
       <c r="C54" s="2">
-        <v>0.429281</v>
+        <v>0.42928100000000002</v>
       </c>
       <c r="D54" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E54" s="2">
-        <v>0.979367</v>
+        <v>0.97936699999999999</v>
       </c>
       <c r="F54" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="G54" s="2">
-        <v>0.000444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>4.44E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.000779</v>
+        <v>7.7899999999999996E-4</v>
       </c>
       <c r="C55" s="2">
-        <v>0.428184</v>
+        <v>0.42818400000000001</v>
       </c>
       <c r="D55" s="2">
-        <v>0.00043</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="E55" s="2">
-        <v>0.9738250000000001</v>
+        <v>0.97382500000000005</v>
       </c>
       <c r="F55" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G55" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.000472</v>
+        <v>4.7199999999999998E-4</v>
       </c>
       <c r="C56" s="2">
-        <v>0.433149</v>
+        <v>0.43314900000000001</v>
       </c>
       <c r="D56" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E56" s="2">
-        <v>0.971133</v>
+        <v>0.97113300000000002</v>
       </c>
       <c r="F56" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G56" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.000826</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="C57" s="2">
-        <v>0.428096</v>
+        <v>0.42809599999999998</v>
       </c>
       <c r="D57" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E57" s="2">
-        <v>0.9781570000000001</v>
+        <v>0.97815700000000005</v>
       </c>
       <c r="F57" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G57" s="2">
-        <v>0.000405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>4.0499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.000479</v>
+        <v>4.7899999999999999E-4</v>
       </c>
       <c r="C58" s="2">
-        <v>0.435048</v>
+        <v>0.43504799999999999</v>
       </c>
       <c r="D58" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E58" s="2">
-        <v>0.974432</v>
+        <v>0.97443199999999996</v>
       </c>
       <c r="F58" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G58" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.000785</v>
+        <v>7.85E-4</v>
       </c>
       <c r="C59" s="2">
-        <v>0.423943</v>
+        <v>0.42394300000000001</v>
       </c>
       <c r="D59" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E59" s="2">
-        <v>0.972581</v>
+        <v>0.97258100000000003</v>
       </c>
       <c r="F59" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G59" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.000379</v>
+        <v>3.79E-4</v>
       </c>
       <c r="C60" s="2">
-        <v>0.428181</v>
+        <v>0.42818099999999998</v>
       </c>
       <c r="D60" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E60" s="2">
-        <v>0.977979</v>
+        <v>0.97797900000000004</v>
       </c>
       <c r="F60" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G60" s="2">
-        <v>0.000403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>4.0299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.000505</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="C61" s="2">
         <v>0.435054</v>
       </c>
       <c r="D61" s="2">
-        <v>0.00038</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="E61" s="2">
-        <v>0.98266</v>
+        <v>0.98265999999999998</v>
       </c>
       <c r="F61" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G61" s="2">
-        <v>0.000374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.000393</v>
+        <v>3.9300000000000001E-4</v>
       </c>
       <c r="C62" s="2">
-        <v>0.42621</v>
+        <v>0.42620999999999998</v>
       </c>
       <c r="D62" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E62" s="2">
-        <v>0.971685</v>
+        <v>0.97168500000000002</v>
       </c>
       <c r="F62" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G62" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.00078</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="C63" s="2">
-        <v>0.429048</v>
+        <v>0.42904799999999998</v>
       </c>
       <c r="D63" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E63" s="2">
-        <v>0.978824</v>
+        <v>0.97882400000000003</v>
       </c>
       <c r="F63" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="G63" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.000723</v>
+        <v>7.2300000000000001E-4</v>
       </c>
       <c r="C64" s="2">
         <v>0.428201</v>
       </c>
       <c r="D64" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E64" s="2">
-        <v>0.971456</v>
+        <v>0.97145599999999999</v>
       </c>
       <c r="F64" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G64" s="2">
-        <v>0.000396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>3.9599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.000792</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="C65" s="2">
-        <v>0.424605</v>
+        <v>0.42460500000000001</v>
       </c>
       <c r="D65" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E65" s="2">
-        <v>0.973241</v>
+        <v>0.97324100000000002</v>
       </c>
       <c r="F65" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G65" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.000586</v>
+        <v>5.8600000000000004E-4</v>
       </c>
       <c r="C66" s="2">
-        <v>0.44541</v>
+        <v>0.44540999999999997</v>
       </c>
       <c r="D66" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E66" s="2">
-        <v>0.979094</v>
+        <v>0.97909400000000002</v>
       </c>
       <c r="F66" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G66" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.00082</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="C67" s="2">
-        <v>0.426687</v>
+        <v>0.42668699999999998</v>
       </c>
       <c r="D67" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E67" s="2">
-        <v>0.9759949999999999</v>
+        <v>0.97599499999999995</v>
       </c>
       <c r="F67" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G67" s="2">
-        <v>0.000384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>3.8400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.000507</v>
+        <v>5.0699999999999996E-4</v>
       </c>
       <c r="C68" s="2">
-        <v>0.442657</v>
+        <v>0.44265700000000002</v>
       </c>
       <c r="D68" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E68" s="2">
-        <v>0.97212</v>
+        <v>0.97211999999999998</v>
       </c>
       <c r="F68" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G68" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.00082</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="C69" s="2">
-        <v>0.427324</v>
+        <v>0.42732399999999998</v>
       </c>
       <c r="D69" s="2">
-        <v>0.000403</v>
+        <v>4.0299999999999998E-4</v>
       </c>
       <c r="E69" s="2">
-        <v>0.978121</v>
+        <v>0.97812100000000002</v>
       </c>
       <c r="F69" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G69" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.000815</v>
+        <v>8.1499999999999997E-4</v>
       </c>
       <c r="C70" s="2">
         <v>0.440577</v>
       </c>
       <c r="D70" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E70" s="2">
-        <v>0.977834</v>
+        <v>0.97783399999999998</v>
       </c>
       <c r="F70" s="2">
-        <v>0.000396</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="G70" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.000853</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="C71" s="2">
         <v>0.434554</v>
       </c>
       <c r="D71" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E71" s="2">
         <v>0.976661</v>
       </c>
       <c r="F71" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="G71" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.00041</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="C72" s="2">
-        <v>0.437053</v>
+        <v>0.43705300000000002</v>
       </c>
       <c r="D72" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E72" s="2">
-        <v>0.9817900000000001</v>
+        <v>0.98179000000000005</v>
       </c>
       <c r="F72" s="2">
-        <v>0.00038</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="G72" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.000373</v>
+        <v>3.7300000000000001E-4</v>
       </c>
       <c r="C73" s="2">
-        <v>0.428482</v>
+        <v>0.42848199999999997</v>
       </c>
       <c r="D73" s="2">
-        <v>0.000395</v>
+        <v>3.9500000000000001E-4</v>
       </c>
       <c r="E73" s="2">
-        <v>0.975115</v>
+        <v>0.97511499999999995</v>
       </c>
       <c r="F73" s="2">
-        <v>0.000387</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="G73" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.000409</v>
+        <v>4.0900000000000002E-4</v>
       </c>
       <c r="C74" s="2">
-        <v>0.43568</v>
+        <v>0.43568000000000001</v>
       </c>
       <c r="D74" s="2">
-        <v>0.000423</v>
+        <v>4.2299999999999998E-4</v>
       </c>
       <c r="E74" s="2">
-        <v>0.977197</v>
+        <v>0.97719699999999998</v>
       </c>
       <c r="F74" s="2">
-        <v>0.000393</v>
+        <v>3.9300000000000001E-4</v>
       </c>
       <c r="G74" s="2">
-        <v>0.000376</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.001012</v>
+        <v>1.0120000000000001E-3</v>
       </c>
       <c r="C75" s="2">
-        <v>0.426415</v>
+        <v>0.42641499999999999</v>
       </c>
       <c r="D75" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="E75" s="2">
-        <v>0.972502</v>
+        <v>0.97250199999999998</v>
       </c>
       <c r="F75" s="2">
-        <v>0.000399</v>
+        <v>3.9899999999999999E-4</v>
       </c>
       <c r="G75" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.000491</v>
+        <v>4.9100000000000001E-4</v>
       </c>
       <c r="C76" s="2">
-        <v>0.425634</v>
+        <v>0.42563400000000001</v>
       </c>
       <c r="D76" s="2">
-        <v>0.000388</v>
+        <v>3.88E-4</v>
       </c>
       <c r="E76" s="2">
-        <v>0.9788559999999999</v>
+        <v>0.97885599999999995</v>
       </c>
       <c r="F76" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G76" s="2">
-        <v>0.00038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>3.8000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.00076</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="C77" s="2">
-        <v>0.428803</v>
+        <v>0.42880299999999999</v>
       </c>
       <c r="D77" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E77" s="2">
-        <v>0.978274</v>
+        <v>0.97827399999999998</v>
       </c>
       <c r="F77" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G77" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.000773</v>
+        <v>7.7300000000000003E-4</v>
       </c>
       <c r="C78" s="2">
-        <v>0.42871</v>
+        <v>0.42870999999999998</v>
       </c>
       <c r="D78" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="E78" s="2">
-        <v>0.974859</v>
+        <v>0.97485900000000003</v>
       </c>
       <c r="F78" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G78" s="2">
-        <v>0.000389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>3.8900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.000536</v>
+        <v>5.3600000000000002E-4</v>
       </c>
       <c r="C79" s="2">
-        <v>0.426341</v>
+        <v>0.42634100000000003</v>
       </c>
       <c r="D79" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E79" s="2">
-        <v>0.980038</v>
+        <v>0.98003799999999996</v>
       </c>
       <c r="F79" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G79" s="2">
-        <v>0.000381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>3.8099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.000785</v>
+        <v>7.85E-4</v>
       </c>
       <c r="C80" s="2">
-        <v>0.427214</v>
+        <v>0.42721399999999998</v>
       </c>
       <c r="D80" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E80" s="2">
-        <v>0.971658</v>
+        <v>0.97165800000000002</v>
       </c>
       <c r="F80" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G80" s="2">
-        <v>0.000383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>3.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.000824</v>
+        <v>8.2399999999999997E-4</v>
       </c>
       <c r="C81" s="2">
-        <v>0.426031</v>
+        <v>0.42603099999999999</v>
       </c>
       <c r="D81" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E81" s="2">
-        <v>0.972033</v>
+        <v>0.97203300000000004</v>
       </c>
       <c r="F81" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="G81" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.000485</v>
+        <v>4.8500000000000003E-4</v>
       </c>
       <c r="C82" s="2">
         <v>0.428394</v>
       </c>
       <c r="D82" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E82" s="2">
         <v>0.976275</v>
       </c>
       <c r="F82" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G82" s="2">
-        <v>0.000378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>3.7800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.000772</v>
+        <v>7.7200000000000001E-4</v>
       </c>
       <c r="C83" s="2">
-        <v>0.429283</v>
+        <v>0.42928300000000003</v>
       </c>
       <c r="D83" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E83" s="2">
-        <v>0.974556</v>
+        <v>0.97455599999999998</v>
       </c>
       <c r="F83" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G83" s="2">
-        <v>0.000376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.0006089999999999999</v>
+        <v>6.0899999999999995E-4</v>
       </c>
       <c r="C84" s="2">
-        <v>0.427695</v>
+        <v>0.42769499999999999</v>
       </c>
       <c r="D84" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E84" s="2">
-        <v>0.973377</v>
+        <v>0.97337700000000005</v>
       </c>
       <c r="F84" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G84" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.000448</v>
+        <v>4.4799999999999999E-4</v>
       </c>
       <c r="C85" s="2">
-        <v>0.425726</v>
+        <v>0.42572599999999999</v>
       </c>
       <c r="D85" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E85" s="2">
-        <v>0.979679</v>
+        <v>0.97967899999999997</v>
       </c>
       <c r="F85" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G85" s="2">
-        <v>0.000386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>3.86E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.000538</v>
+        <v>5.3799999999999996E-4</v>
       </c>
       <c r="C86" s="2">
-        <v>0.434644</v>
+        <v>0.43464399999999997</v>
       </c>
       <c r="D86" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E86" s="2">
-        <v>0.979339</v>
+        <v>0.97933899999999996</v>
       </c>
       <c r="F86" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G86" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.000485</v>
+        <v>4.8500000000000003E-4</v>
       </c>
       <c r="C87" s="2">
-        <v>0.430516</v>
+        <v>0.43051600000000001</v>
       </c>
       <c r="D87" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E87" s="2">
-        <v>0.980079</v>
+        <v>0.98007900000000003</v>
       </c>
       <c r="F87" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G87" s="2">
-        <v>0.000372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.000789</v>
+        <v>7.8899999999999999E-4</v>
       </c>
       <c r="C88" s="2">
-        <v>0.429216</v>
+        <v>0.42921599999999999</v>
       </c>
       <c r="D88" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="E88" s="2">
-        <v>0.970875</v>
+        <v>0.97087500000000004</v>
       </c>
       <c r="F88" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G88" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="C89" s="2">
         <v>0.426846</v>
       </c>
       <c r="D89" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E89" s="2">
-        <v>0.978916</v>
+        <v>0.97891600000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G89" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.000514</v>
+        <v>5.1400000000000003E-4</v>
       </c>
       <c r="C90" s="2">
-        <v>0.453373</v>
+        <v>0.45337300000000003</v>
       </c>
       <c r="D90" s="2">
-        <v>0.00042</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="E90" s="2">
-        <v>0.986017</v>
+        <v>0.98601700000000003</v>
       </c>
       <c r="F90" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="G90" s="2">
-        <v>0.000376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.000799</v>
+        <v>7.9900000000000001E-4</v>
       </c>
       <c r="C91" s="2">
-        <v>0.424408</v>
+        <v>0.42440800000000001</v>
       </c>
       <c r="D91" s="2">
-        <v>0.000432</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="E91" s="2">
-        <v>0.97878</v>
+        <v>0.97877999999999998</v>
       </c>
       <c r="F91" s="2">
-        <v>0.000432</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="G91" s="2">
-        <v>0.000429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>4.2900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.000812</v>
+        <v>8.12E-4</v>
       </c>
       <c r="C92" s="2">
-        <v>0.428874</v>
+        <v>0.42887399999999998</v>
       </c>
       <c r="D92" s="2">
-        <v>0.000448</v>
+        <v>4.4799999999999999E-4</v>
       </c>
       <c r="E92" s="2">
-        <v>0.97495</v>
+        <v>0.97494999999999998</v>
       </c>
       <c r="F92" s="2">
-        <v>0.000382</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G92" s="2">
-        <v>0.000395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>3.9500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.000782</v>
+        <v>7.8200000000000003E-4</v>
       </c>
       <c r="C93" s="2">
-        <v>0.429536</v>
+        <v>0.42953599999999997</v>
       </c>
       <c r="D93" s="2">
-        <v>0.000444</v>
+        <v>4.44E-4</v>
       </c>
       <c r="E93" s="2">
-        <v>0.977851</v>
+        <v>0.97785100000000003</v>
       </c>
       <c r="F93" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G93" s="2">
-        <v>0.000376</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.00045</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="C94" s="2">
-        <v>0.427613</v>
+        <v>0.42761300000000002</v>
       </c>
       <c r="D94" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E94" s="2">
-        <v>0.978227</v>
+        <v>0.97822699999999996</v>
       </c>
       <c r="F94" s="2">
-        <v>0.000378</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="G94" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.000784</v>
+        <v>7.8399999999999997E-4</v>
       </c>
       <c r="C95" s="2">
-        <v>0.43563</v>
+        <v>0.43563000000000002</v>
       </c>
       <c r="D95" s="2">
-        <v>0.000395</v>
+        <v>3.9500000000000001E-4</v>
       </c>
       <c r="E95" s="2">
-        <v>0.981478</v>
+        <v>0.98147799999999996</v>
       </c>
       <c r="F95" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G95" s="2">
-        <v>0.000375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.000553</v>
+        <v>5.53E-4</v>
       </c>
       <c r="C96" s="2">
-        <v>0.424827</v>
+        <v>0.42482700000000001</v>
       </c>
       <c r="D96" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="E96" s="2">
-        <v>0.983499</v>
+        <v>0.98349900000000001</v>
       </c>
       <c r="F96" s="2">
-        <v>0.000511</v>
+        <v>5.1099999999999995E-4</v>
       </c>
       <c r="G96" s="2">
-        <v>0.000481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>4.8099999999999998E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.000599</v>
+        <v>5.9900000000000003E-4</v>
       </c>
       <c r="C97" s="2">
-        <v>0.427962</v>
+        <v>0.42796200000000001</v>
       </c>
       <c r="D97" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="E97" s="2">
         <v>0.974078</v>
       </c>
       <c r="F97" s="2">
-        <v>0.000372</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="G97" s="2">
-        <v>0.000377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>3.77E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.000467</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="C98" s="2">
-        <v>0.436441</v>
+        <v>0.43644100000000002</v>
       </c>
       <c r="D98" s="2">
-        <v>0.000374</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E98" s="2">
-        <v>0.99402</v>
+        <v>0.99402000000000001</v>
       </c>
       <c r="F98" s="2">
-        <v>0.000375</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="G98" s="2">
-        <v>0.000384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>3.8400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.000487</v>
+        <v>4.8700000000000002E-4</v>
       </c>
       <c r="C99" s="2">
-        <v>0.42886</v>
+        <v>0.42886000000000002</v>
       </c>
       <c r="D99" s="2">
-        <v>0.000388</v>
+        <v>3.88E-4</v>
       </c>
       <c r="E99" s="2">
-        <v>0.985534</v>
+        <v>0.98553400000000002</v>
       </c>
       <c r="F99" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="G99" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.000828</v>
+        <v>8.2799999999999996E-4</v>
       </c>
       <c r="C100" s="2">
-        <v>0.434413</v>
+        <v>0.43441299999999999</v>
       </c>
       <c r="D100" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E100" s="2">
-        <v>0.975293</v>
+        <v>0.97529299999999997</v>
       </c>
       <c r="F100" s="2">
-        <v>0.000376</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="G100" s="2">
-        <v>0.000371</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.000494</v>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="C101" s="2">
-        <v>0.431685</v>
+        <v>0.43168499999999999</v>
       </c>
       <c r="D101" s="2">
-        <v>0.000377</v>
+        <v>3.77E-4</v>
       </c>
       <c r="E101" s="2">
-        <v>0.986532</v>
+        <v>0.98653199999999996</v>
       </c>
       <c r="F101" s="2">
-        <v>0.000381</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="G101" s="2">
-        <v>0.000371</v>
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="4">
+        <f>SUBTOTAL(101,Table1[mixed])</f>
+        <v>6.0877000000000001E-4</v>
+      </c>
+      <c r="C102" s="4">
+        <f>SUBTOTAL(101,Table1[mixed optimized])</f>
+        <v>0.42981431000000009</v>
+      </c>
+      <c r="D102" s="4">
+        <f>SUBTOTAL(101,Table1[poly])</f>
+        <v>3.8056000000000011E-4</v>
+      </c>
+      <c r="E102" s="4">
+        <f>SUBTOTAL(101,Table1[poly optimized])</f>
+        <v>0.97767599000000049</v>
+      </c>
+      <c r="F102" s="4">
+        <f>SUBTOTAL(101,Table1[horner])</f>
+        <v>3.7871000000000015E-4</v>
+      </c>
+      <c r="G102" s="4">
+        <f>SUBTOTAL(101,Table1[horner optimized])</f>
+        <v>3.7952000000000016E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>